--- a/src/main/doc/幼儿园入学条件.xlsx
+++ b/src/main/doc/幼儿园入学条件.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68440C52-1AE9-41D5-9D8B-9877D43D141F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694246A6-12D5-46EA-B06A-E11135F94B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$F$182</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="838">
   <si>
     <t>宝安区2020年公民办幼儿园基本信息（3月更新）</t>
   </si>
@@ -2507,6 +2508,58 @@
   </si>
   <si>
     <t>学费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市宝安区西乡豪业华庭幼儿园</t>
+  </si>
+  <si>
+    <t>西乡街道蚝业社区</t>
+  </si>
+  <si>
+    <t>市一级</t>
+  </si>
+  <si>
+    <t>公办园</t>
+  </si>
+  <si>
+    <t>深圳市宝安区宝城59区福中福花园</t>
+  </si>
+  <si>
+    <t>西乡街道径贝社区</t>
+  </si>
+  <si>
+    <t>普惠民办园</t>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>深圳市宝安区西乡绿海名居幼儿园</t>
+  </si>
+  <si>
+    <t>深圳市宝安区西乡绿海名居花园内</t>
+  </si>
+  <si>
+    <t>西乡街道福中福社区</t>
+  </si>
+  <si>
+    <t>深圳市宝安区西乡碧海幼儿园</t>
+  </si>
+  <si>
+    <t>深圳市宝安区碧海片区兴业路西南侧碧海富通城五期</t>
+  </si>
+  <si>
+    <t>深圳市宝安区金科路深航假日名居</t>
+  </si>
+  <si>
+    <t>新安街道海滨社区</t>
+  </si>
+  <si>
+    <t>省一级</t>
+  </si>
+  <si>
+    <t>深圳市宝安区西乡街道兴业路豪业华庭小区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2514,7 +2567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2529,8 +2582,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2543,8 +2611,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2552,13 +2632,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2841,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8149,6 +8253,171 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E61062-E4A0-4CB4-8FC3-AE88D3D6D97F}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F1" s="2">
+        <v>27911993</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I1" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F2" s="3">
+        <v>27924585</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F3" s="2">
+        <v>29589208</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I3" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F4" s="2">
+        <v>23123858</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I4" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="F5" s="4">
+        <v>23599041</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1008</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADABFEF-4D74-4CB3-893A-4DD8C61856CB}">
   <dimension ref="A1:F106"/>
   <sheetViews>
